--- a/biology/Botanique/Pomme_de_terre_de_l'île_de_Ré/Pomme_de_terre_de_l'île_de_Ré.xlsx
+++ b/biology/Botanique/Pomme_de_terre_de_l'île_de_Ré/Pomme_de_terre_de_l'île_de_Ré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pomme_de_terre_de_l%27%C3%AEle_de_R%C3%A9</t>
+          <t>Pomme_de_terre_de_l'île_de_Ré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pomme de terre de l'île de Ré est une appellation d'origine contrôlée (AOC) qui s'applique à une production de pommes de terre primeurs spécifique de l'île de Ré (Charente-Maritime).
-La « Confrérie de la pomme de terre primeur de l'île de Ré », créée en 2000, est chargée de promouvoir et de préserver cette production[1].
-L'appellation AOC est régie par un décret[2] en date du 5 février 1998 qui précise les conditions à respecter pour bénéficier du label.
-Depuis l'an 2000, la pomme de terre de l'île de Ré bénéficie également d'une appellation d'origine protégée (AOP) dans le cadre européen[3].
-La production s'élève à environ 2000 tonnes par an, soit 2 % environ de la production française de pommes de terre primeurs[4].
+La « Confrérie de la pomme de terre primeur de l'île de Ré », créée en 2000, est chargée de promouvoir et de préserver cette production.
+L'appellation AOC est régie par un décret en date du 5 février 1998 qui précise les conditions à respecter pour bénéficier du label.
+Depuis l'an 2000, la pomme de terre de l'île de Ré bénéficie également d'une appellation d'origine protégée (AOP) dans le cadre européen.
+La production s'élève à environ 2000 tonnes par an, soit 2 % environ de la production française de pommes de terre primeurs.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pomme_de_terre_de_l%27%C3%AEle_de_R%C3%A9</t>
+          <t>Pomme_de_terre_de_l'île_de_Ré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Conditions à respecter</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pommes de terre doivent être cultivées dans des parcelles définies situées dans les communes suivantes 
 canton d'Ars-en-Ré : Ars-en-Ré, La Couarde-sur-Mer, Loix, Les Portes-en-Ré, Saint-Clément-des-Baleines ;
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pomme_de_terre_de_l%27%C3%AEle_de_R%C3%A9</t>
+          <t>Pomme_de_terre_de_l'île_de_Ré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,6 +570,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
